--- a/dist/document/dest/2020/10/doctors/219.xlsx
+++ b/dist/document/dest/2020/10/doctors/219.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>24900</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>334</v>
       </c>
-      <c r="C3" s="1">
-        <v>4335320</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>610</v>
       </c>
-      <c r="C4" s="1">
-        <v>6039000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>928</v>
       </c>
-      <c r="C5" s="1">
-        <v>3201600</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>1225</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>262</v>
       </c>
-      <c r="C7" s="1">
-        <v>4034800</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>242550</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>175000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>356</v>
       </c>
-      <c r="C10" s="1">
-        <v>5756520</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <v>6350</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <v>2695500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>670</v>
       </c>
-      <c r="C13" s="1">
-        <v>3467250</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -537,7 +501,7 @@
         <v>3220</v>
       </c>
       <c r="C14" s="1">
-        <v>29980015</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/219.xlsx
+++ b/dist/document/dest/2020/10/doctors/219.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,111 +402,389 @@
         <v>Alpha Choay (VN)</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>49800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B3" s="1">
-        <v>334</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B4" s="1">
-        <v>610</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B5" s="1">
-        <v>928</v>
+        <v>246</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3193080</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1609520</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B7" s="1">
-        <v>262</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>181720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>363440</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Lipitor (Atorvastatin) 20mg</v>
+        <v>Avodart (Dutasteride 0.5mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>265720</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>356</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1029600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sotinin</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>426</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4217400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>670</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>435600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B16" s="1">
+        <v>720</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2484000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>113190</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+      </c>
+      <c r="B18" s="1">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>614460</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B21" s="1">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3234000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>164</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2706000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1078200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>179700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1">
+        <v>641700</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>448</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2318400</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>72450</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B14" s="1">
-        <v>3220</v>
-      </c>
-      <c r="C14" s="1">
-        <v>NaN</v>
+      <c r="B36" s="1">
+        <v>3095</v>
+      </c>
+      <c r="C36" s="1">
+        <v>28357060</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C36"/>
   </ignoredErrors>
 </worksheet>
 </file>